--- a/Spring 2024/Foundations 1/Notes/Class 2 Truth Table.xlsx
+++ b/Spring 2024/Foundations 1/Notes/Class 2 Truth Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natur\OneDrive\Documents\College-Work\Spring 2024\Foundations 1\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04861BBA-BFF2-464E-BEF5-B4B317A711C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3B3931-CD59-4BFB-9808-1F6B61F5F6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C2614E90-FE0A-49E8-9456-B6AD8F36C23D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>P</t>
   </si>
@@ -76,6 +76,36 @@
   <si>
     <t>E</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>!X = Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>P ^ R</t>
+  </si>
+  <si>
+    <t>Q v ~S</t>
+  </si>
+  <si>
+    <t>S =&gt; P</t>
+  </si>
+  <si>
+    <t>A ^ B ^ ~C</t>
+  </si>
 </sst>
 </file>
 
@@ -106,11 +136,122 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -119,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -131,6 +272,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -149,6 +320,2107 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P ^ R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$G$15:$J$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>R</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Q</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>P</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$15:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-422D-4959-AD22-CA135D92E4CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q v ~S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$G$15:$J$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>R</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Q</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>P</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$15:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-422D-4959-AD22-CA135D92E4CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S =&gt; P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$G$15:$J$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>R</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Q</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>P</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$15:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-422D-4959-AD22-CA135D92E4CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A ^ B ^ ~C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$G$15:$J$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="17"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>S</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>R</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Q</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>P</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$15:$N$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-422D-4959-AD22-CA135D92E4CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1280360415"/>
+        <c:axId val="1984371599"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1280360415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1984371599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1984371599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1280360415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B344546-3920-4DAE-7021-C2197B99B57C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,10 +2720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C474387-8263-4EE3-8134-056B697C53D0}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +2731,7 @@
     <col min="1" max="8" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -479,7 +2751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -505,256 +2777,888 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
         <f>IF(OR(AND(B3,  A3), B3), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <f>IF(OR(NOT(A3),B3), 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <f>IF(C3, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="7">
         <f>IF(AND(D3,AND(E3,F3)), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="8">
         <f>IF(AND(G3,A3), 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
         <f t="shared" ref="D4:D10" si="0">IF(OR(AND(B4,  A4), B4), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="10">
         <f t="shared" ref="E4:E10" si="1">IF(OR(NOT(A4),B4), 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="10">
         <f t="shared" ref="F4:F10" si="2">IF(C4, 1,0)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="10">
         <f t="shared" ref="G4:G10" si="3">IF(AND(D4,AND(E4,F4)), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="11">
         <f t="shared" ref="H4:H10" si="4">IF(AND(G4,A4), 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="14">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>0</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f>IF(AND(G16,I16),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <f>IF(OR(H16,NOT(J16)),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <f>IF(AND(J16,G16), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <f>IF(AND(K16,L16,NOT(M16)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>1</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" ref="K17:K31" si="5">IF(AND(G17,I17),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" ref="L17:L31" si="6">IF(OR(H17,NOT(J17)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" ref="M17:M31" si="7">IF(AND(J17,G17), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" ref="N17:N31" si="8">IF(AND(K17,L17,NOT(M17)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>0</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>0</v>
+      </c>
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>1</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N31" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:H10">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B17">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:N31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -767,5 +3671,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>